--- a/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem4/incorrect_predictions.xlsx
+++ b/experiments/evaluation/llm-based/roberta-base_15/original_remove/rem4/incorrect_predictions.xlsx
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,17 +491,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RTH may be affected</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -541,17 +541,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Battery Alert</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Battery installation error</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -591,72 +591,72 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Please check the batteries are inserted correctly</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Please check the batteries are inserted</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,7 +687,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Aircraft in Restricted Zone</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,7 +712,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -721,12 +721,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8-13</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -741,17 +741,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
+          <t>Aircraft in Restricted Zone Unable to take off Check map to find Recommended Zones .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Account not logged in</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -762,21 +762,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Flight altitude and distance restricted to nnn and nnn</t>
+          <t>Aircraft in Attitude mode</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,21 +787,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Check and log in</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13-16</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -841,42 +841,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RTH Altitude is 30m</t>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>11-25</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
+          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Critically Low Power</t>
+          <t>Positioning accuracy affected</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -912,7 +912,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -921,12 +921,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Aircraft Landing</t>
+          <t>Critically Low Power</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,7 +937,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -946,12 +946,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Aircraft Landing</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5-18</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Critically Low Power Aircraft Landing Throttle up to reduce the speed of descent and use sticks to avoid obstacles .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AirSense communication error</t>
+          <t>Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -987,21 +987,21 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-11</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1012,21 +1012,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1071,37 +1071,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Obstacle avoidance unavailable Fly with caution</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution .</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,26 +1112,26 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution .</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable Fly with caution</t>
+          <t>Insufficient storage space</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1166,42 +1166,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Capture Failed Insufficient storage space Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Approaching a No-Fly Zone</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
+          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>High altitude</t>
+          <t>RTH may be affected</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1241,17 +1241,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
+          <t>Approaching a No-Fly Zone RTH may be affected Fly with caution .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aircraft braking distance increased and flight time decreased</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-9</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
+          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Remote ID error</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
+          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode and hovering may be unstable</t>
+          <t>Connect to network to obtain mobile device location</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3-12</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
+          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-21</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1341,17 +1341,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1391,17 +1391,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-18</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Downlink Lost</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>19-20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1441,17 +1441,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Remote ID error</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1466,17 +1466,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Connect to network to obtain mobile device location</t>
+          <t>RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1491,17 +1491,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Remote ID error Connect to network to obtain mobile device location Flying without broadcasting required remote ID messages may violate local regulations .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>11-21</t>
+          <t>11-25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>Battery Alert</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Insufficient storage space</t>
+          <t>Battery installation error</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Capture Failed Insufficient storage space Cannot shoot panorama</t>
+          <t>Battery Alert Battery installation error</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1612,26 +1612,26 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Battery Alert Battery installation error Please check the batteries are inserted correctly .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode</t>
+          <t>Please check the batteries are inserted</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Unable to hover</t>
+          <t>High altitude</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1666,17 +1666,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>High altitude Aircraft braking distance increased and flight time decreased Fly with caution .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft braking distance increased and flight time decreased</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>2-9</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,26 +1687,26 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution</t>
+          <t>Aircraft entered Fixed-Wing Mode</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1716,17 +1716,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
+          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Current flight speed is nnn</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GPS signal weak Positioning accuracy affected Fly with caution .</t>
+          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Positioning accuracy affected</t>
+          <t>Press C2 to exit</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
+          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Weak signal Avoid blocking the antennas and keep the antennas parallel to and facing toward the aircraft during flight Downlink Lost .</t>
+          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Downlink Lost</t>
+          <t>Aircraft is in Attitude mode and hovering may be unstable</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>19-20</t>
+          <t>3-12</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1812,21 +1812,21 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Weak GPS signal Aircraft is in Attitude mode and hovering may be unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,12 +1846,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1887,21 +1887,21 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1916,17 +1916,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>AirSense communication error</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1941,17 +1941,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>3-11</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1966,22 +1966,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-9</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
+          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode</t>
+          <t>Account not logged in</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
+          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Current flight speed is nnn</t>
+          <t>Flight altitude and distance restricted to nnn and nnn</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>4-12</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2041,17 +2041,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode Current flight speed is nnn Press C2 to exit .</t>
+          <t>Account not logged in Flight altitude and distance restricted to nnn and nnn Check and log in .</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Press C2 to exit</t>
+          <t>Check and log in</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-16</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
